--- a/Main Program (зубр, ценовое позиционирование)/зубр, ценовое позиционирование — копия.xlsx
+++ b/Main Program (зубр, ценовое позиционирование)/зубр, ценовое позиционирование — копия.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Python Parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Проекты\Python Parser\Main Program (зубр, ценовое позиционирование)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9E504-3D27-4E20-9CC5-643C49F53890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8265"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -659,12 +654,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00&quot; BYN&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1541,6 +1536,12 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1567,17 +1568,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1893,42 +1888,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="5" width="16.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="3" max="5" width="16.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="29.81640625" customWidth="1"/>
+    <col min="14" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="29.81640625" customWidth="1"/>
+    <col min="20" max="20" width="17.453125" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="29.81640625" customWidth="1"/>
+    <col min="24" max="24" width="14.26953125" customWidth="1"/>
+    <col min="25" max="25" width="14.453125" customWidth="1"/>
+    <col min="26" max="26" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+    <row r="1" spans="1:27" ht="20.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:27" ht="14.5" customHeight="1" thickBot="1">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1943,25 +1938,25 @@
       <c r="F2" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="96" t="s">
         <v>79</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="96" t="s">
         <v>104</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="96" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="96" t="s">
         <v>105</v>
       </c>
       <c r="N2" s="28" t="s">
@@ -1979,7 +1974,7 @@
       <c r="R2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="S2" s="96" t="s">
         <v>141</v>
       </c>
       <c r="T2" s="28" t="s">
@@ -1991,7 +1986,7 @@
       <c r="V2" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="W2" s="105" t="s">
+      <c r="W2" s="96" t="s">
         <v>167</v>
       </c>
       <c r="X2" s="28" t="s">
@@ -2007,8 +2002,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="106"/>
+    <row r="3" spans="1:27" ht="15" thickBot="1">
+      <c r="B3" s="97"/>
       <c r="C3" s="55" t="s">
         <v>46</v>
       </c>
@@ -2021,19 +2016,19 @@
       <c r="F3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="106"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="106"/>
+      <c r="K3" s="97"/>
       <c r="L3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="97"/>
       <c r="N3" s="55" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +2044,7 @@
       <c r="R3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="106"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="55" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +2054,7 @@
       <c r="V3" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="106"/>
+      <c r="W3" s="97"/>
       <c r="X3" s="55" t="s">
         <v>46</v>
       </c>
@@ -2073,8 +2068,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+    <row r="4" spans="1:27">
+      <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
@@ -2106,8 +2101,8 @@
       <c r="Z4" s="77"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+    <row r="5" spans="1:27">
+      <c r="A5" s="102"/>
       <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
@@ -2141,8 +2136,8 @@
       <c r="Z5" s="77"/>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+    <row r="6" spans="1:27">
+      <c r="A6" s="102"/>
       <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
@@ -2176,8 +2171,8 @@
       <c r="Z6" s="77"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
+    <row r="7" spans="1:27">
+      <c r="A7" s="102"/>
       <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
@@ -2211,8 +2206,8 @@
       <c r="Z7" s="77"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
+    <row r="8" spans="1:27">
+      <c r="A8" s="102"/>
       <c r="B8" s="21" t="s">
         <v>38</v>
       </c>
@@ -2246,8 +2241,8 @@
       <c r="Z8" s="77"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+    <row r="9" spans="1:27">
+      <c r="A9" s="102"/>
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
@@ -2279,8 +2274,8 @@
       <c r="Z9" s="77"/>
       <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
+    <row r="10" spans="1:27">
+      <c r="A10" s="102"/>
       <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
@@ -2312,8 +2307,8 @@
       <c r="Z10" s="77"/>
       <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
+    <row r="11" spans="1:27">
+      <c r="A11" s="102"/>
       <c r="B11" s="31" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2338,8 @@
       <c r="Z11" s="77"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
+    <row r="12" spans="1:27">
+      <c r="A12" s="102"/>
       <c r="B12" s="21" t="s">
         <v>39</v>
       </c>
@@ -2376,8 +2371,8 @@
       <c r="Z12" s="77"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="100"/>
+    <row r="13" spans="1:27">
+      <c r="A13" s="102"/>
       <c r="B13" s="21" t="s">
         <v>202</v>
       </c>
@@ -2409,8 +2404,8 @@
       <c r="Z13" s="77"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="100"/>
+    <row r="14" spans="1:27">
+      <c r="A14" s="102"/>
       <c r="B14" s="21" t="s">
         <v>40</v>
       </c>
@@ -2442,8 +2437,8 @@
       <c r="Z14" s="77"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
+    <row r="15" spans="1:27">
+      <c r="A15" s="102"/>
       <c r="B15" s="21" t="s">
         <v>41</v>
       </c>
@@ -2475,8 +2470,8 @@
       <c r="Z15" s="77"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="100"/>
+    <row r="16" spans="1:27">
+      <c r="A16" s="102"/>
       <c r="B16" s="31" t="s">
         <v>47</v>
       </c>
@@ -2506,8 +2501,8 @@
       <c r="Z16" s="77"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
+    <row r="17" spans="1:27">
+      <c r="A17" s="102"/>
       <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
@@ -2539,8 +2534,8 @@
       <c r="Z17" s="77"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="100"/>
+    <row r="18" spans="1:27">
+      <c r="A18" s="102"/>
       <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
@@ -2572,8 +2567,8 @@
       <c r="Z18" s="77"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="100"/>
+    <row r="19" spans="1:27">
+      <c r="A19" s="102"/>
       <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
@@ -2605,8 +2600,8 @@
       <c r="Z19" s="77"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
+    <row r="20" spans="1:27">
+      <c r="A20" s="102"/>
       <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
@@ -2638,8 +2633,8 @@
       <c r="Z20" s="77"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="100"/>
+    <row r="21" spans="1:27">
+      <c r="A21" s="102"/>
       <c r="B21" s="31" t="s">
         <v>50</v>
       </c>
@@ -2669,8 +2664,8 @@
       <c r="Z21" s="77"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
+    <row r="22" spans="1:27">
+      <c r="A22" s="102"/>
       <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
@@ -2704,8 +2699,8 @@
       <c r="Z22" s="77"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
+    <row r="23" spans="1:27" ht="15" thickBot="1">
+      <c r="A23" s="103"/>
       <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
@@ -2739,8 +2734,8 @@
       <c r="Z23" s="77"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96" t="s">
+    <row r="24" spans="1:27" ht="15" thickBot="1">
+      <c r="A24" s="98" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -2780,8 +2775,8 @@
       <c r="Z24" s="80"/>
       <c r="AA24" s="80"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+    <row r="25" spans="1:27">
+      <c r="A25" s="99"/>
       <c r="B25" s="21" t="s">
         <v>7</v>
       </c>
@@ -2825,8 +2820,8 @@
       <c r="Z25" s="77"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+    <row r="26" spans="1:27">
+      <c r="A26" s="99"/>
       <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
@@ -2874,8 +2869,8 @@
       <c r="Z26" s="77"/>
       <c r="AA26" s="10"/>
     </row>
-    <row r="27" spans="1:27" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
+    <row r="27" spans="1:27" ht="28.75" customHeight="1">
+      <c r="A27" s="99"/>
       <c r="B27" s="21" t="s">
         <v>11</v>
       </c>
@@ -2913,8 +2908,8 @@
       <c r="Z27" s="77"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
+    <row r="28" spans="1:27">
+      <c r="A28" s="99"/>
       <c r="B28" s="21" t="s">
         <v>13</v>
       </c>
@@ -2952,8 +2947,8 @@
       <c r="Z28" s="77"/>
       <c r="AA28" s="10"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
+    <row r="29" spans="1:27">
+      <c r="A29" s="99"/>
       <c r="B29" s="21" t="s">
         <v>16</v>
       </c>
@@ -2991,8 +2986,8 @@
       <c r="Z29" s="77"/>
       <c r="AA29" s="10"/>
     </row>
-    <row r="30" spans="1:27" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
+    <row r="30" spans="1:27" ht="28.75" customHeight="1">
+      <c r="A30" s="99"/>
       <c r="B30" s="21" t="s">
         <v>18</v>
       </c>
@@ -3036,8 +3031,8 @@
       <c r="Z30" s="77"/>
       <c r="AA30" s="10"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
+    <row r="31" spans="1:27">
+      <c r="A31" s="99"/>
       <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
@@ -3083,8 +3078,8 @@
       <c r="Z31" s="77"/>
       <c r="AA31" s="10"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
+    <row r="32" spans="1:27">
+      <c r="A32" s="99"/>
       <c r="B32" s="21" t="s">
         <v>28</v>
       </c>
@@ -3130,8 +3125,8 @@
       <c r="Z32" s="77"/>
       <c r="AA32" s="10"/>
     </row>
-    <row r="33" spans="1:27" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
+    <row r="33" spans="1:27" ht="28.75" customHeight="1">
+      <c r="A33" s="99"/>
       <c r="B33" s="21" t="s">
         <v>21</v>
       </c>
@@ -3169,8 +3164,8 @@
       <c r="Z33" s="77"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
+    <row r="34" spans="1:27">
+      <c r="A34" s="99"/>
       <c r="B34" s="21" t="s">
         <v>2</v>
       </c>
@@ -3210,8 +3205,8 @@
       <c r="Z34" s="77"/>
       <c r="AA34" s="10"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
+    <row r="35" spans="1:27">
+      <c r="A35" s="99"/>
       <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
@@ -3247,8 +3242,8 @@
       <c r="Z35" s="77"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
+    <row r="36" spans="1:27" ht="15" thickBot="1">
+      <c r="A36" s="99"/>
       <c r="B36" s="21" t="s">
         <v>6</v>
       </c>
@@ -3288,8 +3283,8 @@
       <c r="Z36" s="77"/>
       <c r="AA36" s="10"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
+    <row r="37" spans="1:27">
+      <c r="A37" s="99"/>
       <c r="B37" s="31" t="s">
         <v>52</v>
       </c>
@@ -3329,8 +3324,8 @@
       <c r="Z37" s="80"/>
       <c r="AA37" s="80"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
+    <row r="38" spans="1:27">
+      <c r="A38" s="99"/>
       <c r="B38" s="21" t="s">
         <v>8</v>
       </c>
@@ -3364,8 +3359,8 @@
       <c r="Z38" s="77"/>
       <c r="AA38" s="10"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
+    <row r="39" spans="1:27">
+      <c r="A39" s="99"/>
       <c r="B39" s="21" t="s">
         <v>12</v>
       </c>
@@ -3409,8 +3404,8 @@
       <c r="Z39" s="77"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
+    <row r="40" spans="1:27">
+      <c r="A40" s="99"/>
       <c r="B40" s="21" t="s">
         <v>14</v>
       </c>
@@ -3458,8 +3453,8 @@
       <c r="Z40" s="77"/>
       <c r="AA40" s="10"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="97"/>
+    <row r="41" spans="1:27">
+      <c r="A41" s="99"/>
       <c r="B41" s="21" t="s">
         <v>17</v>
       </c>
@@ -3505,8 +3500,8 @@
       <c r="Z41" s="77"/>
       <c r="AA41" s="10"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="97"/>
+    <row r="42" spans="1:27">
+      <c r="A42" s="99"/>
       <c r="B42" s="21" t="s">
         <v>20</v>
       </c>
@@ -3556,8 +3551,8 @@
       <c r="Z42" s="77"/>
       <c r="AA42" s="10"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="97"/>
+    <row r="43" spans="1:27">
+      <c r="A43" s="99"/>
       <c r="B43" s="21" t="s">
         <v>22</v>
       </c>
@@ -3601,8 +3596,8 @@
       <c r="Z43" s="77"/>
       <c r="AA43" s="10"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
+    <row r="44" spans="1:27">
+      <c r="A44" s="99"/>
       <c r="B44" s="21" t="s">
         <v>3</v>
       </c>
@@ -3640,8 +3635,8 @@
       <c r="Z44" s="77"/>
       <c r="AA44" s="10"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
+    <row r="45" spans="1:27">
+      <c r="A45" s="99"/>
       <c r="B45" s="22" t="s">
         <v>29</v>
       </c>
@@ -3683,8 +3678,8 @@
       <c r="Z45" s="80"/>
       <c r="AA45" s="80"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
+    <row r="46" spans="1:27">
+      <c r="A46" s="99"/>
       <c r="B46" s="23"/>
       <c r="C46" s="7"/>
       <c r="D46" s="75"/>
@@ -3724,8 +3719,8 @@
       <c r="Z46" s="77"/>
       <c r="AA46" s="10"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
+    <row r="47" spans="1:27">
+      <c r="A47" s="99"/>
       <c r="B47" s="23"/>
       <c r="C47" s="7"/>
       <c r="D47" s="75"/>
@@ -3775,8 +3770,8 @@
       <c r="Z47" s="77"/>
       <c r="AA47" s="10"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
+    <row r="48" spans="1:27">
+      <c r="A48" s="99"/>
       <c r="B48" s="23"/>
       <c r="C48" s="7"/>
       <c r="D48" s="75"/>
@@ -3818,8 +3813,8 @@
       <c r="Z48" s="77"/>
       <c r="AA48" s="10"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
+    <row r="49" spans="1:27">
+      <c r="A49" s="99"/>
       <c r="B49" s="23" t="s">
         <v>30</v>
       </c>
@@ -3871,8 +3866,8 @@
       <c r="Z49" s="77"/>
       <c r="AA49" s="10"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
+    <row r="50" spans="1:27">
+      <c r="A50" s="99"/>
       <c r="B50" s="23" t="s">
         <v>31</v>
       </c>
@@ -3926,8 +3921,8 @@
       <c r="Z50" s="77"/>
       <c r="AA50" s="10"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="98"/>
+    <row r="51" spans="1:27" ht="15" thickBot="1">
+      <c r="A51" s="100"/>
       <c r="B51" s="33" t="s">
         <v>32</v>
       </c>
@@ -3977,8 +3972,8 @@
       <c r="Z51" s="77"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="52" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+    <row r="52" spans="1:27" ht="14.5" customHeight="1">
+      <c r="A52" s="104" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -4020,8 +4015,8 @@
       <c r="Z52" s="80"/>
       <c r="AA52" s="80"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="103"/>
+    <row r="53" spans="1:27">
+      <c r="A53" s="105"/>
       <c r="B53" s="21" t="s">
         <v>9</v>
       </c>
@@ -4069,8 +4064,8 @@
       <c r="Z53" s="77"/>
       <c r="AA53" s="10"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
+    <row r="54" spans="1:27">
+      <c r="A54" s="105"/>
       <c r="B54" s="21" t="s">
         <v>15</v>
       </c>
@@ -4122,8 +4117,8 @@
       <c r="Z54" s="77"/>
       <c r="AA54" s="10"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="103"/>
+    <row r="55" spans="1:27">
+      <c r="A55" s="105"/>
       <c r="B55" s="21" t="s">
         <v>201</v>
       </c>
@@ -4175,8 +4170,8 @@
       <c r="Z55" s="77"/>
       <c r="AA55" s="10"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="103"/>
+    <row r="56" spans="1:27">
+      <c r="A56" s="105"/>
       <c r="B56" s="21"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4208,8 +4203,8 @@
       <c r="Z56" s="77"/>
       <c r="AA56" s="10"/>
     </row>
-    <row r="57" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
+    <row r="57" spans="1:27" ht="14.5" customHeight="1">
+      <c r="A57" s="105"/>
       <c r="B57" s="21" t="s">
         <v>4</v>
       </c>
@@ -4261,8 +4256,8 @@
       <c r="Z57" s="77"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="103"/>
+    <row r="58" spans="1:27">
+      <c r="A58" s="105"/>
       <c r="B58" s="22" t="s">
         <v>53</v>
       </c>
@@ -4302,8 +4297,8 @@
       <c r="Z58" s="80"/>
       <c r="AA58" s="80"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="103"/>
+    <row r="59" spans="1:27">
+      <c r="A59" s="105"/>
       <c r="B59" s="23" t="s">
         <v>23</v>
       </c>
@@ -4349,8 +4344,8 @@
       <c r="Z59" s="77"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="103"/>
+    <row r="60" spans="1:27">
+      <c r="A60" s="105"/>
       <c r="B60" s="23" t="s">
         <v>24</v>
       </c>
@@ -4398,8 +4393,8 @@
       <c r="Z60" s="77"/>
       <c r="AA60" s="10"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="103"/>
+    <row r="61" spans="1:27">
+      <c r="A61" s="105"/>
       <c r="B61" s="23"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4437,8 +4432,8 @@
       <c r="Z61" s="77"/>
       <c r="AA61" s="10"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="103"/>
+    <row r="62" spans="1:27">
+      <c r="A62" s="105"/>
       <c r="B62" s="23" t="s">
         <v>25</v>
       </c>
@@ -4486,8 +4481,8 @@
       <c r="Z62" s="77"/>
       <c r="AA62" s="10"/>
     </row>
-    <row r="63" spans="1:27" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="104"/>
+    <row r="63" spans="1:27" ht="15" thickBot="1">
+      <c r="A63" s="106"/>
       <c r="B63" s="24"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -4527,22 +4522,22 @@
       <c r="Z63" s="86"/>
       <c r="AA63" s="86"/>
     </row>
-    <row r="76" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="16.75" customHeight="1"/>
+    <row r="77" ht="15.65" customHeight="1"/>
+    <row r="78" ht="15.65" customHeight="1"/>
+    <row r="79" ht="15.65" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A24:A51"/>
+    <mergeCell ref="A4:A23"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="A24:A51"/>
-    <mergeCell ref="A4:A23"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
